--- a/dataset/NEW_TEST/selec/only_SS.xlsx
+++ b/dataset/NEW_TEST/selec/only_SS.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8171153749738421</v>
+        <v>0.8180242265973773</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7384896938668724</v>
+        <v>0.7842643511962287</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8221789384157362</v>
+        <v>0.7358570795174258</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1861216225556975</v>
+        <v>0.1294349516598608</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7780904414621176</v>
+        <v>0.7592899664205777</v>
       </c>
     </row>
   </sheetData>
